--- a/eq_log/80002223.xlsx
+++ b/eq_log/80002223.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="240" yWindow="525" windowWidth="28455" windowHeight="11445"/>
   </bookViews>
   <sheets>
-    <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="data" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="main" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
   <si>
     <t>тип обладнання</t>
   </si>
@@ -32,9 +32,6 @@
     <t>причина дефекту/невідповідності</t>
   </si>
   <si>
-    <t>кількість ударів при заміні аплікатора</t>
-  </si>
-  <si>
     <t>різниця циклів між замінами</t>
   </si>
   <si>
@@ -71,6 +68,15 @@
     <t>7</t>
   </si>
   <si>
+    <t>09/02/2018</t>
+  </si>
+  <si>
+    <t>Асиметрія контакту</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
     <t>**</t>
   </si>
   <si>
@@ -204,84 +210,86 @@
   </si>
   <si>
     <t>механічне корегування механізмів</t>
+  </si>
+  <si>
+    <t>кількість циклів при заміні запчастин</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="9">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <i val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="20"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="238"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="238"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="9"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -294,13 +302,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.1499984740745262"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.3999755851924192"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,7 +331,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.5999938962981048"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,7 +343,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.7999816888943144"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,137 +513,138 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="47">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="11" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="9" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="9" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="9" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="11" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="8" fillId="10" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="10" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="10" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="1" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="5" fontId="1" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="7" fillId="6" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
-    <cellStyle builtinId="8" name="Гиперссылка" xfId="1"/>
-    <cellStyle builtinId="26" name="Хороший" xfId="2"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Хороший" xfId="2" builtinId="26"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -923,41 +932,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="29" width="10.5703125"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="42" width="21"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="43" width="34.85546875"/>
-    <col customWidth="1" max="4" min="4" style="44" width="23.7109375"/>
-    <col customWidth="1" max="5" min="5" style="43" width="23.7109375"/>
-    <col customWidth="1" max="6" min="6" style="45" width="23.7109375"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="45" width="35.28515625"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="45" width="15.28515625"/>
+    <col min="1" max="1" width="10.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="39" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="38" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" style="40" customWidth="1"/>
+    <col min="7" max="7" width="35.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="26.25" r="1" s="45" spans="1:8">
-      <c r="A1" s="41" t="n">
+    <row r="1" spans="1:8" ht="26.25" customHeight="1">
+      <c r="A1" s="41">
         <v>80002223</v>
       </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="45"/>
       <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="35" t="s">
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="29.45" r="2" s="45" spans="1:8">
+    <row r="2" spans="1:8" ht="29.45" customHeight="1">
       <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
@@ -968,532 +978,542 @@
         <v>4</v>
       </c>
       <c r="D2" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="5" t="n"/>
-      <c r="G2" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="40" t="n">
+      <c r="H2" s="36">
         <v>150000</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="n"/>
-      <c r="D3" s="44" t="n">
+      <c r="C3" s="1"/>
+      <c r="D3" s="39">
         <v>1</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="30" t="e">
         <f>D3-D2</f>
-        <v/>
-      </c>
-      <c r="F3" s="6" t="n"/>
-      <c r="G3" s="43" t="n"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="44" t="n">
+      <c r="D4" s="39">
         <v>2</v>
       </c>
       <c r="E4" s="30">
         <f>D4-D3</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="31" t="n">
+      <c r="D5" s="31">
         <v>3</v>
       </c>
       <c r="E5" s="30">
         <f>D5-D4</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
       <c r="E6" s="30">
-        <f>D6-#REF!</f>
-        <v/>
+        <f>D6-D5</f>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="30">
-        <f>D7-D6</f>
-        <v/>
+        <f t="shared" ref="E7:E23" si="0">D7-D6</f>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
       <c r="E8" s="30">
-        <f>D8-D7</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="30">
-        <f>D9-D8</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
         <v>18</v>
       </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
       <c r="E10" s="30">
-        <f>D10-D9</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
       <c r="E11" s="30">
-        <f>D11-D10</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>-31</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="E12" s="30">
-        <f>D12-D11</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="E13" s="30">
-        <f>D13-D12</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="E14" s="30">
-        <f>D14-D13</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="E15" s="30">
-        <f>D15-D14</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="E16" s="30">
-        <f>D16-D15</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
       <c r="E17" s="30">
-        <f>D17-D16</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
       <c r="E18" s="30">
-        <f>D18-D17</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
       <c r="E19" s="30">
-        <f>D19-D18</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
       <c r="E20" s="30">
-        <f>D20-D19</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
       <c r="E21" s="30">
-        <f>D21-D20</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
       <c r="E22" s="30">
-        <f>D22-D21</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
       <c r="E23" s="30">
-        <f>D23-D22</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="45" width="41.5703125"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="45" width="13.42578125"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="45" width="45.42578125"/>
+    <col min="1" max="1" width="41.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.42578125" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="46" t="n"/>
+        <v>11</v>
+      </c>
+      <c r="D1" s="46"/>
       <c r="E1" s="46" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="2" s="45" spans="1:5" thickBot="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A2" s="7" t="s">
-        <v>20</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>22</v>
-      </c>
       <c r="E4" s="19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="D9" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="D10" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="D11" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="D12" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="D13" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="D14" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="D15" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="D16" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="17" s="45" spans="1:5" thickBot="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="D17" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
       <c r="D18" s="13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5">
       <c r="D19" s="14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E19" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="D20" s="14" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="D20" s="14" t="s">
-        <v>44</v>
-      </c>
       <c r="E20" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5">
       <c r="D21" s="14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5">
       <c r="D22" s="14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="23" s="45" spans="1:5" thickBot="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="D23" s="15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5">
       <c r="D24" s="16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5">
       <c r="D25" s="18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E25" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5">
+      <c r="D26" s="18" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="D26" s="18" t="s">
-        <v>51</v>
-      </c>
       <c r="E26" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="27" s="45" spans="1:5" thickBot="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="D27" s="20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5">
       <c r="D28" s="22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5">
       <c r="D29" s="23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E29" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5">
+      <c r="D30" s="23" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="D30" s="23" t="s">
-        <v>56</v>
-      </c>
       <c r="E30" s="19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5">
       <c r="D31" s="23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5">
       <c r="D32" s="23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="33" s="45" spans="1:5" thickBot="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="D33" s="24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1501,6 +1521,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/eq_log/80002223.xlsx
+++ b/eq_log/80002223.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="525" windowWidth="28455" windowHeight="11445"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="main" sheetId="1" r:id="rId1"/>
-    <sheet name="data" sheetId="2" r:id="rId2"/>
+    <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="data" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
   <si>
     <t>тип обладнання</t>
   </si>
@@ -32,6 +32,9 @@
     <t>причина дефекту/невідповідності</t>
   </si>
   <si>
+    <t>кількість циклів при заміні запчастин</t>
+  </si>
+  <si>
     <t>різниця циклів між замінами</t>
   </si>
   <si>
@@ -77,6 +80,36 @@
     <t>31</t>
   </si>
   <si>
+    <t>Рекваліфікація / EMPB</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Не відповідне зварне з’єднання</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>12/02/2018</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Гострини на розрізі контакту</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
     <t>**</t>
   </si>
   <si>
@@ -95,9 +128,6 @@
     <t>проблеми з матеріалом</t>
   </si>
   <si>
-    <t>Рекваліфікація / EMPB</t>
-  </si>
-  <si>
     <t>механічна поломка</t>
   </si>
   <si>
@@ -210,86 +240,84 @@
   </si>
   <si>
     <t>механічне корегування механізмів</t>
-  </si>
-  <si>
-    <t>кількість циклів при заміні запчастин</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="9">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <i val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="20"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="8"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <charset val="238"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <charset val="238"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
     </font>
     <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -302,13 +330,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.1499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.3999755851924192"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,7 +359,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,7 +371,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="3" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,138 +541,137 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="47">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="8" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="11" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="9" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="9" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="9" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="9" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="11" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="8" fillId="10" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="10" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="10" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="5" fontId="1" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="5" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="5" fontId="1" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="7" fillId="6" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Хороший" xfId="2" builtinId="26"/>
+    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
+    <cellStyle builtinId="8" name="Гиперссылка" xfId="1"/>
+    <cellStyle builtinId="26" name="Хороший" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -932,34 +959,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="39" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" style="38" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" style="40" customWidth="1"/>
-    <col min="7" max="7" width="35.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="29" width="10.5703125"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="42" width="21"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="43" width="34.85546875"/>
+    <col customWidth="1" max="4" min="4" style="44" width="23.7109375"/>
+    <col customWidth="1" max="5" min="5" style="43" width="23.7109375"/>
+    <col customWidth="1" max="6" min="6" style="45" width="23.7109375"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="45" width="35.28515625"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="45" width="15.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" customHeight="1">
-      <c r="A1" s="41">
+    <row customHeight="1" ht="26.25" r="1" s="45" spans="1:8">
+      <c r="A1" s="41" t="n">
         <v>80002223</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="45"/>
       <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
@@ -967,7 +993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29.45" customHeight="1">
+    <row customHeight="1" ht="29.45" r="2" s="45" spans="1:8">
       <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
@@ -978,542 +1004,616 @@
         <v>4</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="n"/>
       <c r="G2" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="36">
+        <v>7</v>
+      </c>
+      <c r="H2" s="36" t="n">
         <v>150000</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="39">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="n"/>
+      <c r="D3" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="30" t="e">
+      <c r="E3" s="30">
         <f>D3-D2</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="38"/>
+        <v/>
+      </c>
+      <c r="F3" s="6" t="n"/>
+      <c r="G3" s="43" t="n"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="39">
+        <v>9</v>
+      </c>
+      <c r="D4" s="44" t="n">
         <v>2</v>
       </c>
       <c r="E4" s="30">
         <f>D4-D3</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="38" t="s">
-        <v>7</v>
+      <c r="A5" s="43" t="s">
+        <v>8</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="31">
+        <v>9</v>
+      </c>
+      <c r="D5" s="31" t="n">
         <v>3</v>
       </c>
       <c r="E5" s="30">
         <f>D5-D4</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="30">
         <f>D6-D5</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="30">
-        <f t="shared" ref="E7:E23" si="0">D7-D6</f>
-        <v>1</v>
+        <f>D7-D6</f>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="30">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>D8-D7</f>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" s="30">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>D9-D8</f>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" s="30">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <f>D10-D9</f>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
       </c>
       <c r="E11" s="30">
-        <f t="shared" si="0"/>
-        <v>-31</v>
+        <f>D11-D10</f>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
       <c r="E12" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D12-D11</f>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
       <c r="E13" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D13-D12</f>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
       <c r="E14" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D14-D13</f>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
       <c r="E15" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D15-D14</f>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
       <c r="E16" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5">
+        <f>D16-D15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
       <c r="E17" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5">
+        <f>D17-D16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="E18" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5">
+        <f>D18-D17</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="E19" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="5:5">
+        <f>D19-D18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="E20" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="5:5">
+        <f>D20-D19</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="E21" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="5:5">
+        <f>D21-D20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="E22" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="5:5">
+        <f>D22-D21</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="E23" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D23-D22</f>
+        <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="41.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="45" width="41.5703125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="45" width="13.42578125"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="45" width="45.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="46"/>
+        <v>12</v>
+      </c>
+      <c r="D1" s="46" t="n"/>
       <c r="E1" s="46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="2" s="45" spans="1:5" thickBot="1">
       <c r="A2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
+        <v>33</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="7" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="7" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="8" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="D9" s="10" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="D10" s="10" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="D11" s="10" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="D12" s="10" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="D13" s="10" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="D14" s="10" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="D15" s="10" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="D16" s="10" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" ht="15.75" customHeight="1" thickBot="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="17" s="45" spans="1:5" thickBot="1">
       <c r="D17" s="12" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="D18" s="13" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="D19" s="14" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="D20" s="14" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="D21" s="14" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="D22" s="14" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="4:5" ht="15.75" customHeight="1" thickBot="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="23" s="45" spans="1:5" thickBot="1">
       <c r="D23" s="15" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="4:5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="D24" s="16" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="4:5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="D25" s="18" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="4:5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="D26" s="18" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="4:5" ht="15.75" customHeight="1" thickBot="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="27" s="45" spans="1:5" thickBot="1">
       <c r="D27" s="20" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="4:5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="D28" s="22" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="4:5">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="D29" s="23" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="4:5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="D30" s="23" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="4:5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="D31" s="23" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="4:5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="D32" s="23" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5" ht="15.75" customHeight="1" thickBot="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="33" s="45" spans="1:5" thickBot="1">
       <c r="D33" s="24" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1521,6 +1621,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>